--- a/DS_Mystery/Asia stock management/output/Неликвиды ШМТ 2023-06-21.xlsx
+++ b/DS_Mystery/Asia stock management/output/Неликвиды ШМТ 2023-06-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9768,14 +9768,14 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="B149" t="n">
-        <v>101368</v>
+        <v>111315</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Средство для очистки сантехники "Tiger Shark" WC Гель, изогнутое горло, 1000 мл</t>
+          <t>Крышка кругл., d 140мм, h 15мм, п/прозрачн., ПП</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -9795,33 +9795,33 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Средства бытовые для очистки сантехники 0.75-0.9 л с изогнутым горлом</t>
+          <t>Крышки к круглым контейнерам универсальные ПП</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>0.8823529411764707</v>
       </c>
       <c r="K149" t="n">
-        <v>676.5</v>
+        <v>15375</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Плохие новинки</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>4</v>
+        <v>0.1879621643220377</v>
       </c>
       <c r="N149" t="n">
-        <v>2706</v>
+        <v>2889.91827645133</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -9831,24 +9831,24 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B150" t="n">
-        <v>103174</v>
+        <v>101368</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Вилка одноразовая Кристалл 180 мм, прозр., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Средство для очистки сантехники "Tiger Shark" WC Гель, изогнутое горло, 1000 мл</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -9858,33 +9858,33 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Вилки пластиковые прозрачные 180 мм</t>
+          <t>Средства бытовые для очистки сантехники 0.75-0.9 л с изогнутым горлом</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.9744360902255639</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>6.53</v>
+        <v>676.5</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Плохие новинки</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>375.7798498770294</v>
+        <v>4</v>
       </c>
       <c r="N150" t="n">
-        <v>2453.842419697002</v>
+        <v>2706</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -9894,24 +9894,24 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B151" t="n">
-        <v>101366</v>
+        <v>103174</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Средство для дезинфекции и отбеливания "Белизна Gold" 25%, флакон, 1000 мл</t>
+          <t>Вилка одноразовая Кристалл 180 мм, прозр., ПС, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -9921,33 +9921,33 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Хлоросодержащие средства жидкие до 5.0 л</t>
+          <t>Вилки пластиковые прозрачные 180 мм</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>0.9744360902255639</v>
       </c>
       <c r="K151" t="n">
-        <v>295.2</v>
+        <v>6.53</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Плохие новинки</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>6</v>
+        <v>375.7798498770294</v>
       </c>
       <c r="N151" t="n">
-        <v>1771.2</v>
+        <v>2453.842419697002</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -9957,24 +9957,24 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B152" t="n">
-        <v>102978</v>
+        <v>101366</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Стакан бумажный 250 мл ТК 1 сл., крафт, 50 шт/упак</t>
+          <t>Средство для дезинфекции и отбеливания "Белизна Gold" 25%, флакон, 1000 мл</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ТЕРМО-КАП ООО</t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -9984,33 +9984,33 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 250-290 мл белые, крафт 1-слойные</t>
+          <t>Хлоросодержащие средства жидкие до 5.0 л</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>16779.2</v>
+        <v>295.2</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Плохие новинки</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>0.0962725615951327</v>
+        <v>6</v>
       </c>
       <c r="N152" t="n">
-        <v>1615.376565517051</v>
+        <v>1771.2</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -10020,14 +10020,14 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>399</v>
+        <v>61</v>
       </c>
       <c r="B153" t="n">
-        <v>255081</v>
+        <v>102978</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Коробка для кондит. изделий 250х170х100 мм "OSQ" Muf 6, с окном, неразъем.крышка, коричн.-бел., карт</t>
+          <t>Стакан бумажный 250 мл ТК 1 сл., крафт, 50 шт/упак</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ТЕРМО-КАП ООО</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10047,22 +10047,22 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Упаковка для кондите</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Упаковка для кондитерских изделий картонная с окном</t>
+          <t>Стаканы бумажные 250-290 мл белые, крафт 1-слойные</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>191.83</v>
+        <v>16779.2</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -10070,10 +10070,10 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>6.758780227165914</v>
+        <v>0.0962725615951327</v>
       </c>
       <c r="N153" t="n">
-        <v>1296.536810977237</v>
+        <v>1615.376565517051</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -10083,14 +10083,14 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="B154" t="n">
-        <v>101182</v>
+        <v>255081</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Бокал для мартини 100 мл "Buffet", прозр., ПС, 6 шт/упак</t>
+          <t>Коробка для кондит. изделий 250х170х100 мм "OSQ" Muf 6, с окном, неразъем.крышка, коричн.-бел., карт</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -10110,33 +10110,33 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Бокалы, рюмки, фужер</t>
+          <t>Упаковка для кондите</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Бокалы</t>
+          <t>Упаковка для кондитерских изделий картонная с окном</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K154" t="n">
-        <v>470.67</v>
+        <v>191.83</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Плохие новинки</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>2</v>
+        <v>6.758780227165914</v>
       </c>
       <c r="N154" t="n">
-        <v>941.34</v>
+        <v>1296.536810977237</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -10146,14 +10146,14 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>407</v>
+        <v>9</v>
       </c>
       <c r="B155" t="n">
-        <v>264503</v>
+        <v>101182</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Упаковка для кондит. изделий 2350 мл, 1-секц. 242х173х72[229х161х64] мм "Комус", неразъем.крышка, пр</t>
+          <t>Бокал для мартини 100 мл "Buffet", прозр., ПС, 6 шт/упак</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ТСК КОМУС ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10173,33 +10173,33 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Упаковка для кондите</t>
+          <t>Бокалы, рюмки, фужер</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Упаковка для кондитерских изделий пластиковая с неразъемной крышкой прямоугольная длиной 230-249 мм</t>
+          <t>Бокалы</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0.5043227665706052</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>49.36000000000001</v>
+        <v>470.67</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Плохие новинки</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>18.77895950752855</v>
+        <v>2</v>
       </c>
       <c r="N155" t="n">
-        <v>926.9294412916096</v>
+        <v>941.34</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -10209,14 +10209,14 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>72</v>
+        <v>407</v>
       </c>
       <c r="B156" t="n">
-        <v>103267</v>
+        <v>264503</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Бокал для вина 200 мл "Buffet", прозр., ПС, 6 шт/упак</t>
+          <t>Упаковка для кондит. изделий 2350 мл, 1-секц. 242х173х72[229х161х64] мм "Комус", неразъем.крышка, пр</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ТСК КОМУС ООО</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -10236,33 +10236,33 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Бокалы, рюмки, фужер</t>
+          <t>Упаковка для кондите</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Бокалы</t>
+          <t>Упаковка для кондитерских изделий пластиковая с неразъемной крышкой прямоугольная длиной 230-249 мм</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>0.5043227665706052</v>
       </c>
       <c r="K156" t="n">
-        <v>411.29</v>
+        <v>49.36000000000001</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Плохие новинки</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>2</v>
+        <v>18.77895950752855</v>
       </c>
       <c r="N156" t="n">
-        <v>822.58</v>
+        <v>926.9294412916096</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -10272,14 +10272,14 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B157" t="n">
-        <v>103268</v>
+        <v>103267</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Фужер для коктейлей 100 мл "Buffet", прозр., черн. ножка, ПС, 6 шт/упак (ШК)</t>
+          <t>Бокал для вина 200 мл "Buffet", прозр., ПС, 6 шт/упак</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Фужеры</t>
+          <t>Бокалы</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>340.27</v>
+        <v>411.29</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="N157" t="n">
-        <v>680.54</v>
+        <v>822.58</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -10335,62 +10335,125 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B158" t="n">
+        <v>103268</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Фужер для коктейлей 100 мл "Buffet", прозр., черн. ножка, ПС, 6 шт/упак (ШК)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>ВЗЛП ООО</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Бокалы, рюмки, фужер</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Фужеры</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>340.27</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Плохие новинки</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>680.54</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Неликвид</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B159" t="n">
         <v>107429</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Крышка для стакана d 95 мм "ПолиЭр" плоская без отверстия, прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
         <is>
           <t>ПолиЭр ООО</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>Крышки ПЭТ плоские</t>
         </is>
       </c>
-      <c r="I158" t="n">
+      <c r="I159" t="n">
         <v>3</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J159" t="n">
         <v>0.6622516556291391</v>
       </c>
-      <c r="K158" t="n">
+      <c r="K159" t="n">
         <v>5.89</v>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="L159" t="inlineStr">
         <is>
           <t>Опасные</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="M159" t="n">
         <v>1.964023973004629</v>
       </c>
-      <c r="N158" t="n">
+      <c r="N159" t="n">
         <v>11.56810120099726</v>
       </c>
-      <c r="O158" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>Неликвид</t>
         </is>
